--- a/P7 ab_test/data.xlsx
+++ b/P7 ab_test/data.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="109">
   <si>
     <t>Unique cookies to view page per day:</t>
   </si>
@@ -209,15 +209,6 @@
     <t>Expect</t>
   </si>
   <si>
-    <t>NA</t>
-  </si>
-  <si>
-    <t>Observe</t>
-  </si>
-  <si>
-    <t>Significant</t>
-  </si>
-  <si>
     <t>CTR</t>
   </si>
   <si>
@@ -236,12 +227,6 @@
     <t>Pbound</t>
   </si>
   <si>
-    <t>DiffGross</t>
-  </si>
-  <si>
-    <t>DiffNet</t>
-  </si>
-  <si>
     <t>Pc</t>
   </si>
   <si>
@@ -267,6 +252,102 @@
   </si>
   <si>
     <t>NetK</t>
+  </si>
+  <si>
+    <t>sum</t>
+  </si>
+  <si>
+    <t>std</t>
+  </si>
+  <si>
+    <t>sanity check</t>
+  </si>
+  <si>
+    <t>prob</t>
+  </si>
+  <si>
+    <t>sd</t>
+  </si>
+  <si>
+    <t>m=sd*z</t>
+  </si>
+  <si>
+    <t>totoal events</t>
+  </si>
+  <si>
+    <t>CI upper</t>
+  </si>
+  <si>
+    <t>Ci lower</t>
+  </si>
+  <si>
+    <t>No.of coockies</t>
+  </si>
+  <si>
+    <t>No.of clicks</t>
+  </si>
+  <si>
+    <t>1-p</t>
+  </si>
+  <si>
+    <t>pr</t>
+  </si>
+  <si>
+    <t>prob observed</t>
+  </si>
+  <si>
+    <t>expected prob</t>
+  </si>
+  <si>
+    <t>prob given</t>
+  </si>
+  <si>
+    <t>N/a</t>
+  </si>
+  <si>
+    <t>metric</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> total events control</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> total events exp</t>
+  </si>
+  <si>
+    <t>Gross Diff</t>
+  </si>
+  <si>
+    <t>Net Diff</t>
+  </si>
+  <si>
+    <t>NC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Expected </t>
+  </si>
+  <si>
+    <t>Prob cont</t>
+  </si>
+  <si>
+    <t>Prob exp</t>
+  </si>
+  <si>
+    <t>Prob diff</t>
+  </si>
+  <si>
+    <t>$P_{pool}$</t>
+  </si>
+  <si>
+    <t>$SE_{pool}$</t>
+  </si>
+  <si>
+    <t>$CI_{lower}</t>
+  </si>
+  <si>
+    <t>$CI_{upper}</t>
+  </si>
+  <si>
+    <t>$P_{bound}$</t>
   </si>
 </sst>
 </file>
@@ -607,7 +688,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -615,10 +696,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I8"/>
+  <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -626,7 +707,7 @@
     <col min="1" max="1" width="44.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -646,12 +727,16 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:10">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2">
         <v>40000</v>
+      </c>
+      <c r="C2">
+        <f>B2/8</f>
+        <v>5000</v>
       </c>
       <c r="F2" t="s">
         <v>11</v>
@@ -666,14 +751,22 @@
         <f>SQRT((G2*(1-G2))/H2)</f>
         <v>7.1525986864041241E-3</v>
       </c>
-    </row>
-    <row r="3" spans="1:9">
+      <c r="J2">
+        <f t="shared" ref="J2:J3" si="0">I2*2.828</f>
+        <v>2.0227549085150863E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" t="s">
         <v>1</v>
       </c>
       <c r="B3">
         <v>3200</v>
       </c>
+      <c r="C3">
+        <f t="shared" ref="C3:C8" si="1">B3/8</f>
+        <v>400</v>
+      </c>
       <c r="F3" t="s">
         <v>12</v>
       </c>
@@ -684,17 +777,25 @@
         <v>660</v>
       </c>
       <c r="I3">
-        <f t="shared" ref="I3:I4" si="0">SQRT((G3*(1-G3))/H3)</f>
+        <f t="shared" ref="I3:I4" si="2">SQRT((G3*(1-G3))/H3)</f>
         <v>1.9427409565462978E-2</v>
       </c>
-    </row>
-    <row r="4" spans="1:9">
+      <c r="J3">
+        <f t="shared" si="0"/>
+        <v>5.49407142511293E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" t="s">
         <v>2</v>
       </c>
       <c r="B4">
         <v>660</v>
       </c>
+      <c r="C4">
+        <f t="shared" si="1"/>
+        <v>82.5</v>
+      </c>
       <c r="F4" t="s">
         <v>13</v>
       </c>
@@ -705,23 +806,37 @@
         <v>3200</v>
       </c>
       <c r="I4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>5.515990052537033E-3</v>
       </c>
-    </row>
-    <row r="5" spans="1:9">
+      <c r="J4">
+        <f>I4*2.828</f>
+        <v>1.5599219868574729E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" t="s">
         <v>3</v>
       </c>
       <c r="B5">
         <v>0.08</v>
       </c>
+      <c r="C5">
+        <f t="shared" si="1"/>
+        <v>0.01</v>
+      </c>
+      <c r="H5">
+        <v>0.08</v>
+      </c>
       <c r="I5">
-        <f>I4*2.828</f>
-        <v>1.5599219868574729E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
+        <v>0.08</v>
+      </c>
+      <c r="J5">
+        <f>I5*2.828</f>
+        <v>0.22624</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -729,20 +844,44 @@
         <v>0.20624999999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:10">
       <c r="A7" t="s">
         <v>5</v>
       </c>
       <c r="B7">
         <v>0.53</v>
       </c>
-    </row>
-    <row r="8" spans="1:9">
+      <c r="C7">
+        <f t="shared" si="1"/>
+        <v>6.6250000000000003E-2</v>
+      </c>
+      <c r="D7">
+        <f>SQRT(40000/5000)</f>
+        <v>2.8284271247461903</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" t="s">
         <v>6</v>
       </c>
       <c r="B8">
         <v>0.10931250000000001</v>
+      </c>
+      <c r="C8">
+        <f t="shared" si="1"/>
+        <v>1.3664062500000001E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="B11">
+        <f>685325/40000</f>
+        <v>17.133125</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="D12">
+        <f>3200/40000</f>
+        <v>0.08</v>
       </c>
     </row>
   </sheetData>
@@ -753,23 +892,35 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T85"/>
+  <dimension ref="A1:AB85"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="H38" sqref="H38"/>
+    <sheetView tabSelected="1" topLeftCell="R1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="Y23" sqref="Y23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.28515625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13.28515625" bestFit="1" customWidth="1"/>
     <col min="8" max="12" width="13.28515625" customWidth="1"/>
-    <col min="14" max="14" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="9.140625" customWidth="1"/>
+    <col min="14" max="14" width="6.7109375" customWidth="1"/>
+    <col min="15" max="15" width="15" customWidth="1"/>
+    <col min="16" max="18" width="15.85546875" customWidth="1"/>
+    <col min="19" max="19" width="31" customWidth="1"/>
+    <col min="20" max="20" width="17.28515625" customWidth="1"/>
+    <col min="21" max="21" width="17.5703125" customWidth="1"/>
+    <col min="23" max="23" width="11.85546875" customWidth="1"/>
+    <col min="24" max="24" width="12.140625" customWidth="1"/>
+    <col min="25" max="25" width="12" customWidth="1"/>
+    <col min="26" max="26" width="10.7109375" customWidth="1"/>
+    <col min="27" max="27" width="12.7109375" customWidth="1"/>
+    <col min="28" max="28" width="12.5703125" customWidth="1"/>
+    <col min="29" max="29" width="14.28515625" customWidth="1"/>
+    <col min="30" max="30" width="12.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20">
+    <row r="1" spans="1:28">
       <c r="A1" t="s">
         <v>16</v>
       </c>
@@ -786,43 +937,31 @@
         <v>20</v>
       </c>
       <c r="F1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="G1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="H1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="I1" t="s">
-        <v>71</v>
+        <v>97</v>
       </c>
       <c r="J1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K1" t="s">
-        <v>78</v>
+        <v>98</v>
       </c>
       <c r="L1" t="s">
+        <v>74</v>
+      </c>
+      <c r="O1" t="s">
         <v>79</v>
       </c>
-      <c r="O1" t="s">
-        <v>58</v>
-      </c>
-      <c r="P1" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>18</v>
-      </c>
-      <c r="S1" t="s">
-        <v>80</v>
-      </c>
-      <c r="T1" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="2" spans="1:20">
+    </row>
+    <row r="2" spans="1:28">
       <c r="A2" t="s">
         <v>21</v>
       </c>
@@ -854,40 +993,41 @@
         <f>G2-Experiment!G2</f>
         <v>4.1989721652853279E-2</v>
       </c>
-      <c r="J2">
+      <c r="J2" t="b">
+        <f>I2&gt;0</f>
+        <v>1</v>
+      </c>
+      <c r="K2">
         <f>H2-Experiment!H2</f>
         <v>5.2329603082655392E-2</v>
       </c>
-      <c r="K2" t="b">
-        <f>I2&gt;0</f>
+      <c r="L2" t="b">
+        <f>K2&gt;0</f>
         <v>1</v>
       </c>
-      <c r="L2" t="b">
-        <f>J2&gt;0</f>
-        <v>1</v>
-      </c>
-      <c r="N2" t="s">
-        <v>61</v>
-      </c>
-      <c r="O2" t="s">
-        <v>62</v>
-      </c>
-      <c r="P2">
-        <v>0.5</v>
-      </c>
-      <c r="Q2">
-        <v>0.5</v>
-      </c>
-      <c r="S2">
-        <f>COUNTIF(K2:K24,TRUE)</f>
-        <v>19</v>
-      </c>
-      <c r="T2">
-        <f>COUNTIF(L2:L24,TRUE)</f>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:20">
+      <c r="P2" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>83</v>
+      </c>
+      <c r="R2" t="s">
+        <v>92</v>
+      </c>
+      <c r="S2" t="s">
+        <v>80</v>
+      </c>
+      <c r="T2" t="s">
+        <v>80</v>
+      </c>
+      <c r="U2" t="s">
+        <v>89</v>
+      </c>
+      <c r="V2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="3" spans="1:28">
       <c r="A3" t="s">
         <v>22</v>
       </c>
@@ -919,41 +1059,53 @@
         <f>G3-Experiment!G3</f>
         <v>4.0932765345085581E-2</v>
       </c>
-      <c r="J3">
+      <c r="J3" t="b">
+        <f>I3&gt;0</f>
+        <v>1</v>
+      </c>
+      <c r="K3">
         <f>H3-Experiment!H3</f>
         <v>-2.6064773554205542E-2</v>
       </c>
-      <c r="K3" t="b">
-        <f t="shared" ref="K3:K24" si="3">I3&gt;0</f>
-        <v>1</v>
-      </c>
       <c r="L3" t="b">
-        <f t="shared" ref="L3:L24" si="4">J3&gt;0</f>
+        <f>K3&gt;0</f>
         <v>0</v>
       </c>
-      <c r="N3" t="s">
-        <v>15</v>
-      </c>
-      <c r="O3">
-        <f>SUM(C2:C38)/SUM(B2:B38)</f>
-        <v>8.2125813574576823E-2</v>
+      <c r="O3" t="s">
+        <v>94</v>
       </c>
       <c r="P3" t="s">
-        <v>62</v>
+        <v>95</v>
       </c>
       <c r="Q3" t="s">
-        <v>62</v>
-      </c>
-      <c r="S3">
-        <f>COUNTA(K2:K24)</f>
-        <v>23</v>
-      </c>
-      <c r="T3">
-        <f>COUNTA(L2:L24)</f>
-        <v>23</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20">
+        <v>96</v>
+      </c>
+      <c r="R3" t="s">
+        <v>92</v>
+      </c>
+      <c r="S3" t="s">
+        <v>91</v>
+      </c>
+      <c r="T3" t="s">
+        <v>88</v>
+      </c>
+      <c r="U3" t="s">
+        <v>90</v>
+      </c>
+      <c r="V3" t="s">
+        <v>81</v>
+      </c>
+      <c r="W3" t="s">
+        <v>82</v>
+      </c>
+      <c r="X3" t="s">
+        <v>84</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="4" spans="1:28">
       <c r="A4" t="s">
         <v>23</v>
       </c>
@@ -985,35 +1137,61 @@
         <f>G4-Experiment!G4</f>
         <v>1.9691222515916762E-2</v>
       </c>
-      <c r="J4">
+      <c r="J4" t="b">
+        <f>I4&gt;0</f>
+        <v>1</v>
+      </c>
+      <c r="K4">
         <f>H4-Experiment!H4</f>
         <v>1.5143935208000434E-2</v>
       </c>
-      <c r="K4" t="b">
-        <f t="shared" si="3"/>
+      <c r="L4" t="b">
+        <f>K4&gt;0</f>
         <v>1</v>
       </c>
-      <c r="L4" t="b">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="N4" t="s">
-        <v>7</v>
-      </c>
-      <c r="O4">
-        <f>SQRT((O3*(1-O3))/SUM(B2:B38))</f>
-        <v>4.6706827655464432E-4</v>
+      <c r="O4" t="s">
+        <v>86</v>
       </c>
       <c r="P4">
-        <f>SQRT((P2*(1-P2))/SUM($B$2:$B$38,Experiment!$B$2:$B$38))</f>
+        <f>B39</f>
+        <v>345543</v>
+      </c>
+      <c r="Q4">
+        <f>Experiment!B39</f>
+        <v>344660</v>
+      </c>
+      <c r="R4" t="s">
+        <v>93</v>
+      </c>
+      <c r="S4">
+        <v>0.5</v>
+      </c>
+      <c r="T4">
+        <f>1-S4</f>
+        <v>0.5</v>
+      </c>
+      <c r="U4">
+        <f>P4/(P4+Q4)</f>
+        <v>0.50063966688061334</v>
+      </c>
+      <c r="V4">
+        <f>SQRT(S4*T4/(P4+Q4))</f>
         <v>6.0184074029432473E-4</v>
       </c>
-      <c r="Q4">
-        <f>SQRT((Q2*(1-Q2))/SUM($C$2:$C$38,Experiment!$C$2:$C$38))</f>
-        <v>2.0997470796992519E-3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20">
+      <c r="W4">
+        <f>1.96*V4</f>
+        <v>1.1796078509768765E-3</v>
+      </c>
+      <c r="X4">
+        <f>S4+W4</f>
+        <v>0.50117960785097693</v>
+      </c>
+      <c r="Y4">
+        <f>S4-W4</f>
+        <v>0.49882039214902313</v>
+      </c>
+    </row>
+    <row r="5" spans="1:28">
       <c r="A5" t="s">
         <v>24</v>
       </c>
@@ -1045,35 +1223,61 @@
         <f>G5-Experiment!G5</f>
         <v>1.9734672506262901E-2</v>
       </c>
-      <c r="J5">
+      <c r="J5" t="b">
+        <f>I5&gt;0</f>
+        <v>1</v>
+      </c>
+      <c r="K5">
         <f>H5-Experiment!H5</f>
         <v>1.4352620586312426E-2</v>
       </c>
-      <c r="K5" t="b">
-        <f t="shared" si="3"/>
+      <c r="L5" t="b">
+        <f>K5&gt;0</f>
         <v>1</v>
       </c>
-      <c r="L5" t="b">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="N5" t="s">
-        <v>59</v>
-      </c>
-      <c r="O5">
-        <f>O3-O4*1.96</f>
-        <v>8.1210359752529715E-2</v>
+      <c r="O5" t="s">
+        <v>87</v>
       </c>
       <c r="P5">
-        <f>P2-P4*1.96</f>
-        <v>0.49882039214902313</v>
+        <f>C39</f>
+        <v>28378</v>
       </c>
       <c r="Q5">
-        <f>Q2-Q4*1.96</f>
+        <f>Experiment!C39</f>
+        <v>28325</v>
+      </c>
+      <c r="R5" t="s">
+        <v>93</v>
+      </c>
+      <c r="S5">
+        <v>0.5</v>
+      </c>
+      <c r="T5">
+        <f>1-S5</f>
+        <v>0.5</v>
+      </c>
+      <c r="U5">
+        <f>P5/(P5+Q5)</f>
+        <v>0.50046734740666277</v>
+      </c>
+      <c r="V5">
+        <f>SQRT(S5*T5/(P5+Q5))</f>
+        <v>2.0997470796992519E-3</v>
+      </c>
+      <c r="W5">
+        <f>1.96*V5</f>
+        <v>4.1155042762105335E-3</v>
+      </c>
+      <c r="X5">
+        <f>S5+W5</f>
+        <v>0.50411550427621055</v>
+      </c>
+      <c r="Y5">
+        <f>S5-W5</f>
         <v>0.49588449572378945</v>
       </c>
     </row>
-    <row r="6" spans="1:20">
+    <row r="6" spans="1:28">
       <c r="A6" t="s">
         <v>25</v>
       </c>
@@ -1105,35 +1309,63 @@
         <f>G6-Experiment!G6</f>
         <v>2.64738994577704E-2</v>
       </c>
-      <c r="J6">
+      <c r="J6" t="b">
+        <f>I6&gt;0</f>
+        <v>1</v>
+      </c>
+      <c r="K6">
         <f>H6-Experiment!H6</f>
         <v>-3.651720889624116E-2</v>
       </c>
-      <c r="K6" t="b">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
       <c r="L6" t="b">
-        <f t="shared" si="4"/>
+        <f>K6&gt;0</f>
         <v>0</v>
       </c>
-      <c r="N6" t="s">
-        <v>60</v>
-      </c>
-      <c r="O6">
-        <f>O3+O4*1.96</f>
-        <v>8.304126739662393E-2</v>
+      <c r="O6" t="s">
+        <v>58</v>
       </c>
       <c r="P6">
-        <f>P2+P4*1.96</f>
-        <v>0.50117960785097693</v>
+        <f>B39</f>
+        <v>345543</v>
       </c>
       <c r="Q6">
-        <f>Q2+Q4*1.96</f>
-        <v>0.50411550427621055</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20">
+        <f>Experiment!B39</f>
+        <v>344660</v>
+      </c>
+      <c r="R6">
+        <f>F39</f>
+        <v>8.2125813574576823E-2</v>
+      </c>
+      <c r="S6">
+        <f>(C39+Experiment!C39)/(Control!P6+Control!Q6)</f>
+        <v>8.2154090897895257E-2</v>
+      </c>
+      <c r="T6">
+        <f>1-S6</f>
+        <v>0.91784590910210473</v>
+      </c>
+      <c r="U6">
+        <f>Experiment!D39</f>
+        <v>8.2182440666163759E-2</v>
+      </c>
+      <c r="V6">
+        <f>SQRT((S6*(1-S6))*(1/P6+1/Q6))</f>
+        <v>6.6106081563872224E-4</v>
+      </c>
+      <c r="W6">
+        <f>1.96*V6</f>
+        <v>1.2956791986518956E-3</v>
+      </c>
+      <c r="X6">
+        <f>+W6</f>
+        <v>1.2956791986518956E-3</v>
+      </c>
+      <c r="Y6">
+        <f>-W6</f>
+        <v>-1.2956791986518956E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:28">
       <c r="A7" t="s">
         <v>26</v>
       </c>
@@ -1165,35 +1397,20 @@
         <f>G7-Experiment!G7</f>
         <v>3.9736386008844826E-3</v>
       </c>
-      <c r="J7">
+      <c r="J7" t="b">
+        <f>I7&gt;0</f>
+        <v>1</v>
+      </c>
+      <c r="K7">
         <f>H7-Experiment!H7</f>
         <v>2.222431243870697E-2</v>
       </c>
-      <c r="K7" t="b">
-        <f t="shared" si="3"/>
+      <c r="L7" t="b">
+        <f>K7&gt;0</f>
         <v>1</v>
       </c>
-      <c r="L7" t="b">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="N7" t="s">
-        <v>63</v>
-      </c>
-      <c r="O7">
-        <f>SUM(Experiment!C2:C38)/SUM(Experiment!B2:B38)</f>
-        <v>8.2182440666163759E-2</v>
-      </c>
-      <c r="P7">
-        <f>SUM(B2:B38)/SUM(Experiment!B2:B38,Control!B2:B38)</f>
-        <v>0.50063966688061334</v>
-      </c>
-      <c r="Q7">
-        <f>SUM(C2:C38)/SUM(Experiment!C2:C38,Control!C2:C38)</f>
-        <v>0.50046734740666277</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20">
+    </row>
+    <row r="8" spans="1:28">
       <c r="A8" t="s">
         <v>27</v>
       </c>
@@ -1225,35 +1442,24 @@
         <f>G8-Experiment!G8</f>
         <v>3.2366652954888248E-2</v>
       </c>
-      <c r="J8">
+      <c r="J8" t="b">
+        <f>I8&gt;0</f>
+        <v>1</v>
+      </c>
+      <c r="K8">
         <f>H8-Experiment!H8</f>
         <v>4.5194021664609903E-2</v>
       </c>
-      <c r="K8" t="b">
-        <f t="shared" si="3"/>
+      <c r="L8" t="b">
+        <f>K8&gt;0</f>
         <v>1</v>
       </c>
-      <c r="L8" t="b">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="N8" t="s">
-        <v>64</v>
-      </c>
-      <c r="O8" t="b">
-        <f>OR(O7&lt;O5,O7&gt;O6)</f>
-        <v>0</v>
-      </c>
-      <c r="P8" t="b">
-        <f>OR(P7&lt;P5,P7&gt;P6)</f>
-        <v>0</v>
-      </c>
-      <c r="Q8" t="b">
-        <f>OR(Q7&lt;Q5,Q7&gt;Q6)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20">
+      <c r="S8">
+        <f>U6-R6</f>
+        <v>5.6627091586936018E-5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28">
       <c r="A9" t="s">
         <v>28</v>
       </c>
@@ -1285,20 +1491,20 @@
         <f>G9-Experiment!G9</f>
         <v>2.9878853770288122E-2</v>
       </c>
-      <c r="J9">
+      <c r="J9" t="b">
+        <f>I9&gt;0</f>
+        <v>1</v>
+      </c>
+      <c r="K9">
         <f>H9-Experiment!H9</f>
         <v>1.5667469131008763E-2</v>
       </c>
-      <c r="K9" t="b">
-        <f t="shared" si="3"/>
+      <c r="L9" t="b">
+        <f>K9&gt;0</f>
         <v>1</v>
       </c>
-      <c r="L9" t="b">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20">
+    </row>
+    <row r="10" spans="1:28">
       <c r="A10" t="s">
         <v>29</v>
       </c>
@@ -1330,26 +1536,56 @@
         <f>G10-Experiment!G10</f>
         <v>1.7413890832532225E-2</v>
       </c>
-      <c r="J10">
+      <c r="J10" t="b">
+        <f>I10&gt;0</f>
+        <v>1</v>
+      </c>
+      <c r="K10">
         <f>H10-Experiment!H10</f>
         <v>-2.3642777502091872E-2</v>
       </c>
-      <c r="K10" t="b">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
       <c r="L10" t="b">
-        <f t="shared" si="4"/>
+        <f>K10&gt;0</f>
         <v>0</v>
       </c>
-      <c r="O10" t="s">
-        <v>66</v>
-      </c>
       <c r="P10" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20">
+        <v>63</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>64</v>
+      </c>
+      <c r="S10" t="s">
+        <v>94</v>
+      </c>
+      <c r="T10" t="s">
+        <v>100</v>
+      </c>
+      <c r="U10" t="s">
+        <v>101</v>
+      </c>
+      <c r="V10" t="s">
+        <v>102</v>
+      </c>
+      <c r="W10" t="s">
+        <v>103</v>
+      </c>
+      <c r="X10" t="s">
+        <v>104</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>105</v>
+      </c>
+      <c r="Z10" t="s">
+        <v>106</v>
+      </c>
+      <c r="AA10" t="s">
+        <v>107</v>
+      </c>
+      <c r="AB10" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28">
       <c r="A11" t="s">
         <v>30</v>
       </c>
@@ -1381,29 +1617,67 @@
         <f>G11-Experiment!G11</f>
         <v>1.3730653917834873E-2</v>
       </c>
-      <c r="J11">
+      <c r="J11" t="b">
+        <f>I11&gt;0</f>
+        <v>1</v>
+      </c>
+      <c r="K11">
         <f>H11-Experiment!H11</f>
         <v>-1.2937903465413403E-3</v>
       </c>
-      <c r="K11" t="b">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
       <c r="L11" t="b">
-        <f t="shared" si="4"/>
+        <f>K11&gt;0</f>
         <v>0</v>
       </c>
-      <c r="N11" t="s">
+      <c r="O11" t="s">
         <v>61</v>
-      </c>
-      <c r="O11">
-        <v>0</v>
       </c>
       <c r="P11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:20">
+      <c r="Q11">
+        <v>0</v>
+      </c>
+      <c r="S11" t="s">
+        <v>11</v>
+      </c>
+      <c r="T11">
+        <v>0</v>
+      </c>
+      <c r="U11">
+        <f>D25/D26</f>
+        <v>0.2188746891805933</v>
+      </c>
+      <c r="V11">
+        <f>Experiment!D25/Experiment!D26</f>
+        <v>0.19831981460023174</v>
+      </c>
+      <c r="W11">
+        <f>V11-U11</f>
+        <v>-2.0554874580361565E-2</v>
+      </c>
+      <c r="X11">
+        <f>(D25+Experiment!D25)/(Experiment!D26+Control!D26)</f>
+        <v>0.20860706740369866</v>
+      </c>
+      <c r="Y11">
+        <f>SQRT((X11*(1-X11))*(1/D26+1/Experiment!D26))</f>
+        <v>4.3716753852259364E-3</v>
+      </c>
+      <c r="Z11">
+        <f>W11-Y11*1.96</f>
+        <v>-2.9123358335404401E-2</v>
+      </c>
+      <c r="AA11">
+        <f>W11+Y11*1.96</f>
+        <v>-1.198639082531873E-2</v>
+      </c>
+      <c r="AB11">
+        <f>0.01</f>
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="12" spans="1:28">
       <c r="A12" t="s">
         <v>31</v>
       </c>
@@ -1435,31 +1709,68 @@
         <f>G12-Experiment!G12</f>
         <v>6.0557638087914895E-2</v>
       </c>
-      <c r="J12">
+      <c r="J12" t="b">
+        <f>I12&gt;0</f>
+        <v>1</v>
+      </c>
+      <c r="K12">
         <f>H12-Experiment!H12</f>
         <v>3.8931340510060225E-2</v>
       </c>
-      <c r="K12" t="b">
-        <f t="shared" si="3"/>
+      <c r="L12" t="b">
+        <f>K12&gt;0</f>
         <v>1</v>
       </c>
-      <c r="L12" t="b">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="N12" t="s">
-        <v>73</v>
-      </c>
-      <c r="O12" s="1">
+      <c r="O12" t="s">
+        <v>68</v>
+      </c>
+      <c r="P12" s="1">
         <f>SUM(D$2:D$24)/SUM($C$2:$C$24)</f>
         <v>0.2188746891805933</v>
       </c>
-      <c r="P12" s="1">
+      <c r="Q12" s="1">
         <f>SUM(E$2:E$24)/SUM($C$2:$C$24)</f>
         <v>0.11756201931417337</v>
       </c>
-    </row>
-    <row r="13" spans="1:20">
+      <c r="S12" t="s">
+        <v>99</v>
+      </c>
+      <c r="T12">
+        <v>0</v>
+      </c>
+      <c r="U12">
+        <f>E25/D26</f>
+        <v>0.11756201931417337</v>
+      </c>
+      <c r="V12">
+        <f>Experiment!E25/Experiment!D26</f>
+        <v>0.1126882966396292</v>
+      </c>
+      <c r="W12">
+        <f>V12-U12</f>
+        <v>-4.8737226745441675E-3</v>
+      </c>
+      <c r="X12">
+        <f>(E25+Experiment!E25)/(Experiment!D26+Control!D26)</f>
+        <v>0.11512748531241861</v>
+      </c>
+      <c r="Y12">
+        <f>SQRT((X12*(1-X12))*(1/D26+1/Experiment!D26))</f>
+        <v>3.4341335129324238E-3</v>
+      </c>
+      <c r="Z12">
+        <f>W12-Y12*1.96</f>
+        <v>-1.1604624359891718E-2</v>
+      </c>
+      <c r="AA12">
+        <f>W12+Y12*1.96</f>
+        <v>1.857179010803383E-3</v>
+      </c>
+      <c r="AB12">
+        <v>7.4999999999999997E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28">
       <c r="A13" t="s">
         <v>32</v>
       </c>
@@ -1491,31 +1802,31 @@
         <f>G13-Experiment!G13</f>
         <v>3.3517172746477392E-2</v>
       </c>
-      <c r="J13">
+      <c r="J13" t="b">
+        <f>I13&gt;0</f>
+        <v>1</v>
+      </c>
+      <c r="K13">
         <f>H13-Experiment!H13</f>
         <v>2.2394441315896893E-2</v>
       </c>
-      <c r="K13" t="b">
-        <f t="shared" si="3"/>
+      <c r="L13" t="b">
+        <f>K13&gt;0</f>
         <v>1</v>
       </c>
-      <c r="L13" t="b">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="N13" t="s">
-        <v>74</v>
-      </c>
-      <c r="O13" s="1">
+      <c r="O13" t="s">
+        <v>69</v>
+      </c>
+      <c r="P13" s="1">
         <f>SUM(Experiment!D$2:D$24)/SUM(Experiment!$C$2:$C$24)</f>
         <v>0.19831981460023174</v>
       </c>
-      <c r="P13" s="1">
+      <c r="Q13" s="1">
         <f>SUM(Experiment!E$2:E$24)/SUM(Experiment!$C$2:$C$24)</f>
         <v>0.1126882966396292</v>
       </c>
     </row>
-    <row r="14" spans="1:20">
+    <row r="14" spans="1:28">
       <c r="A14" t="s">
         <v>33</v>
       </c>
@@ -1547,31 +1858,31 @@
         <f>G14-Experiment!G14</f>
         <v>9.4629096104748012E-4</v>
       </c>
-      <c r="J14">
+      <c r="J14" t="b">
+        <f>I14&gt;0</f>
+        <v>1</v>
+      </c>
+      <c r="K14">
         <f>H14-Experiment!H14</f>
         <v>-2.1708476799475324E-2</v>
       </c>
-      <c r="K14" t="b">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
       <c r="L14" t="b">
-        <f t="shared" si="4"/>
+        <f>K14&gt;0</f>
         <v>0</v>
       </c>
-      <c r="N14" t="s">
-        <v>77</v>
-      </c>
-      <c r="O14" s="1">
-        <f>O13-O12</f>
-        <v>-2.0554874580361565E-2</v>
+      <c r="O14" t="s">
+        <v>72</v>
       </c>
       <c r="P14" s="1">
         <f>P13-P12</f>
+        <v>-2.0554874580361565E-2</v>
+      </c>
+      <c r="Q14" s="1">
+        <f>Q13-Q12</f>
         <v>-4.8737226745441675E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:20">
+    <row r="15" spans="1:28">
       <c r="A15" t="s">
         <v>34</v>
       </c>
@@ -1603,31 +1914,31 @@
         <f>G15-Experiment!G15</f>
         <v>4.8558777695110245E-2</v>
       </c>
-      <c r="J15">
+      <c r="J15" t="b">
+        <f>I15&gt;0</f>
+        <v>1</v>
+      </c>
+      <c r="K15">
         <f>H15-Experiment!H15</f>
         <v>4.641415874870225E-2</v>
       </c>
-      <c r="K15" t="b">
-        <f t="shared" si="3"/>
+      <c r="L15" t="b">
+        <f>K15&gt;0</f>
         <v>1</v>
       </c>
-      <c r="L15" t="b">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="N15" t="s">
-        <v>76</v>
-      </c>
-      <c r="O15" s="1">
+      <c r="O15" t="s">
+        <v>71</v>
+      </c>
+      <c r="P15" s="1">
         <f>SUM(D$2:D$24,Experiment!D$2:D$24)/SUM($C$2:$C$24,Experiment!$C$2:$C$24)</f>
         <v>0.20860706740369866</v>
       </c>
-      <c r="P15" s="1">
+      <c r="Q15" s="1">
         <f>SUM(E$2:E$24,Experiment!E$2:E$24)/SUM($C$2:$C$24,Experiment!$C$2:$C$24)</f>
         <v>0.11512748531241861</v>
       </c>
     </row>
-    <row r="16" spans="1:20">
+    <row r="16" spans="1:28">
       <c r="A16" t="s">
         <v>35</v>
       </c>
@@ -1659,31 +1970,31 @@
         <f>G16-Experiment!G16</f>
         <v>6.4867753023606922E-2</v>
       </c>
-      <c r="J16">
+      <c r="J16" t="b">
+        <f>I16&gt;0</f>
+        <v>1</v>
+      </c>
+      <c r="K16">
         <f>H16-Experiment!H16</f>
         <v>6.416255118662105E-2</v>
       </c>
-      <c r="K16" t="b">
-        <f t="shared" si="3"/>
+      <c r="L16" t="b">
+        <f>K16&gt;0</f>
         <v>1</v>
       </c>
-      <c r="L16" t="b">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="N16" t="s">
-        <v>75</v>
-      </c>
-      <c r="O16" s="1">
-        <f>SQRT(O15*(1-O15)*(1/SUM($C$2:$C$24)+1/SUM(Experiment!$C$2:$C$24)))</f>
-        <v>4.3716753852259364E-3</v>
+      <c r="O16" t="s">
+        <v>70</v>
       </c>
       <c r="P16" s="1">
         <f>SQRT(P15*(1-P15)*(1/SUM($C$2:$C$24)+1/SUM(Experiment!$C$2:$C$24)))</f>
+        <v>4.3716753852259364E-3</v>
+      </c>
+      <c r="Q16" s="1">
+        <f>SQRT(Q15*(1-Q15)*(1/SUM($C$2:$C$24)+1/SUM(Experiment!$C$2:$C$24)))</f>
         <v>3.4341335129324238E-3</v>
       </c>
     </row>
-    <row r="17" spans="1:16">
+    <row r="17" spans="1:17">
       <c r="A17" t="s">
         <v>36</v>
       </c>
@@ -1715,31 +2026,31 @@
         <f>G17-Experiment!G17</f>
         <v>6.6219091642820416E-3</v>
       </c>
-      <c r="J17">
+      <c r="J17" t="b">
+        <f>I17&gt;0</f>
+        <v>1</v>
+      </c>
+      <c r="K17">
         <f>H17-Experiment!H17</f>
         <v>1.1495096240859148E-3</v>
       </c>
-      <c r="K17" t="b">
-        <f t="shared" si="3"/>
+      <c r="L17" t="b">
+        <f>K17&gt;0</f>
         <v>1</v>
       </c>
-      <c r="L17" t="b">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="N17" t="s">
+      <c r="O17" t="s">
         <v>59</v>
-      </c>
-      <c r="O17" s="1">
-        <f>O14-O16*1.96</f>
-        <v>-2.9123358335404401E-2</v>
       </c>
       <c r="P17" s="1">
         <f>P14-P16*1.96</f>
+        <v>-2.9123358335404401E-2</v>
+      </c>
+      <c r="Q17" s="1">
+        <f>Q14-Q16*1.96</f>
         <v>-1.1604624359891718E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:16">
+    <row r="18" spans="1:17">
       <c r="A18" t="s">
         <v>37</v>
       </c>
@@ -1771,31 +2082,31 @@
         <f>G18-Experiment!G18</f>
         <v>3.0718280760574757E-2</v>
       </c>
-      <c r="J18">
+      <c r="J18" t="b">
+        <f>I18&gt;0</f>
+        <v>1</v>
+      </c>
+      <c r="K18">
         <f>H18-Experiment!H18</f>
         <v>9.0278525399486165E-3</v>
       </c>
-      <c r="K18" t="b">
-        <f t="shared" si="3"/>
+      <c r="L18" t="b">
+        <f>K18&gt;0</f>
         <v>1</v>
       </c>
-      <c r="L18" t="b">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="N18" t="s">
+      <c r="O18" t="s">
         <v>60</v>
-      </c>
-      <c r="O18" s="1">
-        <f>O14+O16*1.96</f>
-        <v>-1.198639082531873E-2</v>
       </c>
       <c r="P18" s="1">
         <f>P14+P16*1.96</f>
+        <v>-1.198639082531873E-2</v>
+      </c>
+      <c r="Q18" s="1">
+        <f>Q14+Q16*1.96</f>
         <v>1.857179010803383E-3</v>
       </c>
     </row>
-    <row r="19" spans="1:16">
+    <row r="19" spans="1:17">
       <c r="A19" t="s">
         <v>38</v>
       </c>
@@ -1827,29 +2138,29 @@
         <f>G19-Experiment!G19</f>
         <v>-1.0869565217391297E-2</v>
       </c>
-      <c r="J19">
+      <c r="J19" t="b">
+        <f>I19&gt;0</f>
+        <v>0</v>
+      </c>
+      <c r="K19">
         <f>H19-Experiment!H19</f>
         <v>-3.9402173913043487E-2</v>
       </c>
-      <c r="K19" t="b">
-        <f t="shared" si="3"/>
+      <c r="L19" t="b">
+        <f>K19&gt;0</f>
         <v>0</v>
       </c>
-      <c r="L19" t="b">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="N19" t="s">
-        <v>70</v>
-      </c>
-      <c r="O19">
+      <c r="O19" t="s">
+        <v>67</v>
+      </c>
+      <c r="P19">
         <v>0.01</v>
       </c>
-      <c r="P19">
+      <c r="Q19">
         <v>7.4999999999999997E-3</v>
       </c>
     </row>
-    <row r="20" spans="1:16">
+    <row r="20" spans="1:17">
       <c r="A20" t="s">
         <v>39</v>
       </c>
@@ -1881,31 +2192,31 @@
         <f>G20-Experiment!G20</f>
         <v>-1.1255404809279779E-2</v>
       </c>
-      <c r="J20">
+      <c r="J20" t="b">
+        <f>I20&gt;0</f>
+        <v>0</v>
+      </c>
+      <c r="K20">
         <f>H20-Experiment!H20</f>
         <v>-1.5676040896933086E-2</v>
       </c>
-      <c r="K20" t="b">
-        <f t="shared" si="3"/>
+      <c r="L20" t="b">
+        <f>K20&gt;0</f>
         <v>0</v>
       </c>
-      <c r="L20" t="b">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="N20" t="s">
-        <v>69</v>
-      </c>
-      <c r="O20" t="b">
-        <f>OR(ABS(O18)&lt;O19,ABS(O17)&gt;O19)</f>
-        <v>1</v>
+      <c r="O20" t="s">
+        <v>66</v>
       </c>
       <c r="P20" t="b">
         <f>OR(ABS(P18)&lt;P19,ABS(P17)&gt;P19)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:16">
+      <c r="Q20" t="b">
+        <f>OR(ABS(Q18)&lt;Q19,ABS(Q17)&gt;Q19)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" t="s">
         <v>40</v>
       </c>
@@ -1937,31 +2248,31 @@
         <f>G21-Experiment!G21</f>
         <v>-5.6820223373356876E-2</v>
       </c>
-      <c r="J21">
+      <c r="J21" t="b">
+        <f>I21&gt;0</f>
+        <v>0</v>
+      </c>
+      <c r="K21">
         <f>H21-Experiment!H21</f>
         <v>1.0146869479294537E-2</v>
       </c>
-      <c r="K21" t="b">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
       <c r="L21" t="b">
-        <f t="shared" si="4"/>
+        <f>K21&gt;0</f>
         <v>1</v>
       </c>
-      <c r="N21" t="s">
-        <v>68</v>
-      </c>
-      <c r="O21" t="b">
-        <f>OR(O17&gt;0,O18&lt;0)</f>
-        <v>1</v>
+      <c r="O21" t="s">
+        <v>65</v>
       </c>
       <c r="P21" t="b">
         <f>OR(P17&gt;0,P18&lt;0)</f>
+        <v>1</v>
+      </c>
+      <c r="Q21" t="b">
+        <f>OR(Q17&gt;0,Q18&lt;0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:16">
+    <row r="22" spans="1:17">
       <c r="A22" t="s">
         <v>41</v>
       </c>
@@ -1993,20 +2304,20 @@
         <f>G22-Experiment!G22</f>
         <v>-5.6186388141219179E-3</v>
       </c>
-      <c r="J22">
+      <c r="J22" t="b">
+        <f>I22&gt;0</f>
+        <v>0</v>
+      </c>
+      <c r="K22">
         <f>H22-Experiment!H22</f>
         <v>-2.7300620718338275E-2</v>
       </c>
-      <c r="K22" t="b">
-        <f t="shared" si="3"/>
+      <c r="L22" t="b">
+        <f>K22&gt;0</f>
         <v>0</v>
       </c>
-      <c r="L22" t="b">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:16">
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" t="s">
         <v>42</v>
       </c>
@@ -2038,20 +2349,20 @@
         <f>G23-Experiment!G23</f>
         <v>2.475834310525149E-2</v>
       </c>
-      <c r="J23">
+      <c r="J23" t="b">
+        <f>I23&gt;0</f>
+        <v>1</v>
+      </c>
+      <c r="K23">
         <f>H23-Experiment!H23</f>
         <v>-7.3210154343485434E-3</v>
       </c>
-      <c r="K23" t="b">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
       <c r="L23" t="b">
-        <f t="shared" si="4"/>
+        <f>K23&gt;0</f>
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:16">
+    <row r="24" spans="1:17">
       <c r="A24" t="s">
         <v>43</v>
       </c>
@@ -2083,20 +2394,20 @@
         <f>G24-Experiment!G24</f>
         <v>4.5877081788683993E-2</v>
       </c>
-      <c r="J24">
+      <c r="J24" t="b">
+        <f>I24&gt;0</f>
+        <v>1</v>
+      </c>
+      <c r="K24">
         <f>H24-Experiment!H24</f>
         <v>-4.5584096689069056E-2</v>
       </c>
-      <c r="K24" t="b">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
       <c r="L24" t="b">
-        <f t="shared" si="4"/>
+        <f>K24&gt;0</f>
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:16">
+    <row r="25" spans="1:17">
       <c r="A25" t="s">
         <v>44</v>
       </c>
@@ -2106,12 +2417,20 @@
       <c r="C25">
         <v>788</v>
       </c>
+      <c r="D25">
+        <f>SUM(D2:D24)</f>
+        <v>3785</v>
+      </c>
+      <c r="E25">
+        <f>SUM(E2:E24)</f>
+        <v>2033</v>
+      </c>
       <c r="F25">
         <f t="shared" si="0"/>
         <v>8.3501112641729366E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:16">
+    <row r="26" spans="1:17">
       <c r="A26" t="s">
         <v>45</v>
       </c>
@@ -2121,12 +2440,16 @@
       <c r="C26">
         <v>781</v>
       </c>
+      <c r="D26">
+        <f>SUM(C2:C24)</f>
+        <v>17293</v>
+      </c>
       <c r="F26">
         <f t="shared" si="0"/>
         <v>8.2908704883227172E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:16">
+    <row r="27" spans="1:17">
       <c r="A27" t="s">
         <v>46</v>
       </c>
@@ -2141,7 +2464,7 @@
         <v>8.4117032392894461E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:16">
+    <row r="28" spans="1:17">
       <c r="A28" t="s">
         <v>47</v>
       </c>
@@ -2156,7 +2479,7 @@
         <v>8.3660921278096961E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:16">
+    <row r="29" spans="1:17">
       <c r="A29" t="s">
         <v>48</v>
       </c>
@@ -2171,7 +2494,7 @@
         <v>8.2873514431239387E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:16">
+    <row r="30" spans="1:17">
       <c r="A30" t="s">
         <v>49</v>
       </c>
@@ -2186,7 +2509,7 @@
         <v>8.390677025527192E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:16">
+    <row r="31" spans="1:17">
       <c r="A31" t="s">
         <v>50</v>
       </c>
@@ -2201,7 +2524,7 @@
         <v>8.5439105219552614E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:16">
+    <row r="32" spans="1:17">
       <c r="A32" t="s">
         <v>51</v>
       </c>
@@ -2216,7 +2539,7 @@
         <v>8.3885209713024281E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:11">
+    <row r="33" spans="1:19">
       <c r="A33" t="s">
         <v>52</v>
       </c>
@@ -2231,7 +2554,7 @@
         <v>8.4008097165991905E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:11">
+    <row r="34" spans="1:19">
       <c r="A34" t="s">
         <v>53</v>
       </c>
@@ -2246,7 +2569,7 @@
         <v>7.9040852575488457E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:11">
+    <row r="35" spans="1:19">
       <c r="A35" t="s">
         <v>54</v>
       </c>
@@ -2261,7 +2584,7 @@
         <v>8.3770711124832767E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:11">
+    <row r="36" spans="1:19">
       <c r="A36" t="s">
         <v>55</v>
       </c>
@@ -2276,7 +2599,7 @@
         <v>7.9960835509138378E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:11">
+    <row r="37" spans="1:19">
       <c r="A37" t="s">
         <v>56</v>
       </c>
@@ -2291,7 +2614,7 @@
         <v>8.6095017381228267E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:11">
+    <row r="38" spans="1:19">
       <c r="A38" t="s">
         <v>57</v>
       </c>
@@ -2306,204 +2629,154 @@
         <v>8.0490523968784838E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:11" ht="15.75" thickBot="1"/>
-    <row r="40" spans="1:11" ht="15.75" thickBot="1">
-      <c r="A40" s="2"/>
+    <row r="39" spans="1:19" ht="15.75" thickBot="1">
+      <c r="A39" t="s">
+        <v>77</v>
+      </c>
+      <c r="B39">
+        <f>SUM(B2:B38)</f>
+        <v>345543</v>
+      </c>
+      <c r="C39">
+        <f>SUM(C2:C38)</f>
+        <v>28378</v>
+      </c>
+      <c r="F39">
+        <f>C39/B39</f>
+        <v>8.2125813574576823E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:19" ht="15.75" thickBot="1">
+      <c r="A40" s="2" t="s">
+        <v>78</v>
+      </c>
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>
       <c r="E40" s="2"/>
-      <c r="G40" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="H40" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="I40" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="J40" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="K40" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11" ht="15.75" thickBot="1">
+      <c r="G40" s="2"/>
+      <c r="H40" s="2"/>
+      <c r="I40" s="2"/>
+      <c r="J40" s="2"/>
+      <c r="K40" s="2"/>
+    </row>
+    <row r="41" spans="1:19" ht="15.75" thickBot="1">
       <c r="A41" s="2"/>
       <c r="B41" s="3"/>
       <c r="C41" s="3"/>
       <c r="D41" s="3"/>
       <c r="E41" s="3"/>
-      <c r="G41" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="H41" s="3">
-        <v>7723</v>
-      </c>
-      <c r="I41" s="3">
-        <v>687</v>
-      </c>
-      <c r="J41" s="3">
-        <v>134</v>
-      </c>
-      <c r="K41" s="3">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11" ht="15.75" thickBot="1">
+      <c r="G41" s="2"/>
+      <c r="H41" s="3"/>
+      <c r="I41" s="3"/>
+      <c r="J41" s="3"/>
+      <c r="K41" s="3"/>
+      <c r="R41" t="s">
+        <v>75</v>
+      </c>
+      <c r="S41" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="42" spans="1:19" ht="15.75" thickBot="1">
       <c r="A42" s="2"/>
       <c r="B42" s="3"/>
       <c r="C42" s="3"/>
       <c r="D42" s="3"/>
       <c r="E42" s="3"/>
-      <c r="G42" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="H42" s="3">
-        <v>9102</v>
-      </c>
-      <c r="I42" s="3">
-        <v>779</v>
-      </c>
-      <c r="J42" s="3">
-        <v>147</v>
-      </c>
-      <c r="K42" s="3">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11" ht="15.75" thickBot="1">
+      <c r="G42" s="2"/>
+      <c r="H42" s="3"/>
+      <c r="I42" s="3"/>
+      <c r="J42" s="3"/>
+      <c r="K42" s="3"/>
+      <c r="R42">
+        <f>COUNTIF(J2:J24,TRUE)</f>
+        <v>19</v>
+      </c>
+      <c r="S42">
+        <f>COUNTIF(L2:L24,TRUE)</f>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="43" spans="1:19" ht="15.75" thickBot="1">
       <c r="A43" s="2"/>
       <c r="B43" s="3"/>
       <c r="C43" s="3"/>
       <c r="D43" s="3"/>
       <c r="E43" s="3"/>
-      <c r="G43" s="2" t="s">
+      <c r="G43" s="2"/>
+      <c r="H43" s="3"/>
+      <c r="I43" s="3"/>
+      <c r="J43" s="3"/>
+      <c r="K43" s="3"/>
+      <c r="R43">
+        <f>COUNTA(J2:J24)</f>
         <v>23</v>
       </c>
-      <c r="H43" s="3">
-        <v>10511</v>
-      </c>
-      <c r="I43" s="3">
-        <v>909</v>
-      </c>
-      <c r="J43" s="3">
-        <v>167</v>
-      </c>
-      <c r="K43" s="3">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11" ht="15.75" thickBot="1">
+      <c r="S43">
+        <f>COUNTA(L2:L24)</f>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="44" spans="1:19" ht="15.75" thickBot="1">
       <c r="A44" s="2"/>
       <c r="B44" s="3"/>
       <c r="C44" s="3"/>
       <c r="D44" s="3"/>
       <c r="E44" s="3"/>
-      <c r="G44" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="H44" s="3">
-        <v>9871</v>
-      </c>
-      <c r="I44" s="3">
-        <v>836</v>
-      </c>
-      <c r="J44" s="3">
-        <v>156</v>
-      </c>
-      <c r="K44" s="3">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11" ht="15.75" thickBot="1">
+      <c r="G44" s="2"/>
+      <c r="H44" s="3"/>
+      <c r="I44" s="3"/>
+      <c r="J44" s="3"/>
+      <c r="K44" s="3"/>
+    </row>
+    <row r="45" spans="1:19" ht="15.75" thickBot="1">
       <c r="A45" s="2"/>
       <c r="B45" s="3"/>
       <c r="C45" s="3"/>
       <c r="D45" s="3"/>
       <c r="E45" s="3"/>
-      <c r="G45" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="H45" s="3">
-        <v>10014</v>
-      </c>
-      <c r="I45" s="3">
-        <v>837</v>
-      </c>
-      <c r="J45" s="3">
-        <v>163</v>
-      </c>
-      <c r="K45" s="3">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11" ht="15.75" thickBot="1">
+      <c r="G45" s="2"/>
+      <c r="H45" s="3"/>
+      <c r="I45" s="3"/>
+      <c r="J45" s="3"/>
+      <c r="K45" s="3"/>
+    </row>
+    <row r="46" spans="1:19" ht="15.75" thickBot="1">
       <c r="A46" s="2"/>
       <c r="B46" s="3"/>
       <c r="C46" s="3"/>
       <c r="D46" s="3"/>
       <c r="E46" s="3"/>
-      <c r="G46" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="H46" s="3">
-        <v>9670</v>
-      </c>
-      <c r="I46" s="3">
-        <v>823</v>
-      </c>
-      <c r="J46" s="3">
-        <v>138</v>
-      </c>
-      <c r="K46" s="3">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11" ht="15.75" thickBot="1">
+      <c r="G46" s="2"/>
+      <c r="H46" s="3"/>
+      <c r="I46" s="3"/>
+      <c r="J46" s="3"/>
+      <c r="K46" s="3"/>
+    </row>
+    <row r="47" spans="1:19" ht="15.75" thickBot="1">
       <c r="A47" s="2"/>
       <c r="B47" s="3"/>
       <c r="C47" s="3"/>
       <c r="D47" s="3"/>
       <c r="E47" s="3"/>
-      <c r="G47" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="H47" s="3">
-        <v>9008</v>
-      </c>
-      <c r="I47" s="3">
-        <v>748</v>
-      </c>
-      <c r="J47" s="3">
-        <v>146</v>
-      </c>
-      <c r="K47" s="3">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11" ht="15.75" thickBot="1">
+      <c r="G47" s="2"/>
+      <c r="H47" s="3"/>
+      <c r="I47" s="3"/>
+      <c r="J47" s="3"/>
+      <c r="K47" s="3"/>
+    </row>
+    <row r="48" spans="1:19" ht="15.75" thickBot="1">
       <c r="A48" s="2"/>
       <c r="B48" s="3"/>
       <c r="C48" s="3"/>
       <c r="D48" s="3"/>
       <c r="E48" s="3"/>
-      <c r="G48" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="H48" s="3">
-        <v>7434</v>
-      </c>
-      <c r="I48" s="3">
-        <v>632</v>
-      </c>
-      <c r="J48" s="3">
-        <v>110</v>
-      </c>
-      <c r="K48" s="3">
-        <v>70</v>
-      </c>
+      <c r="G48" s="2"/>
+      <c r="H48" s="3"/>
+      <c r="I48" s="3"/>
+      <c r="J48" s="3"/>
+      <c r="K48" s="3"/>
     </row>
     <row r="49" spans="1:11" ht="15.75" thickBot="1">
       <c r="A49" s="2"/>
@@ -2511,21 +2784,11 @@
       <c r="C49" s="3"/>
       <c r="D49" s="3"/>
       <c r="E49" s="3"/>
-      <c r="G49" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="H49" s="3">
-        <v>8459</v>
-      </c>
-      <c r="I49" s="3">
-        <v>691</v>
-      </c>
-      <c r="J49" s="3">
-        <v>131</v>
-      </c>
-      <c r="K49" s="3">
-        <v>60</v>
-      </c>
+      <c r="G49" s="2"/>
+      <c r="H49" s="3"/>
+      <c r="I49" s="3"/>
+      <c r="J49" s="3"/>
+      <c r="K49" s="3"/>
     </row>
     <row r="50" spans="1:11" ht="15.75" thickBot="1">
       <c r="A50" s="2"/>
@@ -2533,21 +2796,11 @@
       <c r="C50" s="3"/>
       <c r="D50" s="3"/>
       <c r="E50" s="3"/>
-      <c r="G50" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="H50" s="3">
-        <v>10667</v>
-      </c>
-      <c r="I50" s="3">
-        <v>861</v>
-      </c>
-      <c r="J50" s="3">
-        <v>165</v>
-      </c>
-      <c r="K50" s="3">
-        <v>97</v>
-      </c>
+      <c r="G50" s="2"/>
+      <c r="H50" s="3"/>
+      <c r="I50" s="3"/>
+      <c r="J50" s="3"/>
+      <c r="K50" s="3"/>
     </row>
     <row r="51" spans="1:11" ht="15.75" thickBot="1">
       <c r="A51" s="2"/>
@@ -2555,21 +2808,11 @@
       <c r="C51" s="3"/>
       <c r="D51" s="3"/>
       <c r="E51" s="3"/>
-      <c r="G51" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="H51" s="3">
-        <v>10660</v>
-      </c>
-      <c r="I51" s="3">
-        <v>867</v>
-      </c>
-      <c r="J51" s="3">
-        <v>196</v>
-      </c>
-      <c r="K51" s="3">
-        <v>105</v>
-      </c>
+      <c r="G51" s="2"/>
+      <c r="H51" s="3"/>
+      <c r="I51" s="3"/>
+      <c r="J51" s="3"/>
+      <c r="K51" s="3"/>
     </row>
     <row r="52" spans="1:11" ht="15.75" thickBot="1">
       <c r="A52" s="2"/>
@@ -2577,21 +2820,11 @@
       <c r="C52" s="3"/>
       <c r="D52" s="3"/>
       <c r="E52" s="3"/>
-      <c r="G52" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="H52" s="3">
-        <v>9947</v>
-      </c>
-      <c r="I52" s="3">
-        <v>838</v>
-      </c>
-      <c r="J52" s="3">
-        <v>162</v>
-      </c>
-      <c r="K52" s="3">
-        <v>92</v>
-      </c>
+      <c r="G52" s="2"/>
+      <c r="H52" s="3"/>
+      <c r="I52" s="3"/>
+      <c r="J52" s="3"/>
+      <c r="K52" s="3"/>
     </row>
     <row r="53" spans="1:11" ht="15.75" thickBot="1">
       <c r="A53" s="2"/>
@@ -2599,21 +2832,11 @@
       <c r="C53" s="3"/>
       <c r="D53" s="3"/>
       <c r="E53" s="3"/>
-      <c r="G53" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="H53" s="3">
-        <v>8324</v>
-      </c>
-      <c r="I53" s="3">
-        <v>665</v>
-      </c>
-      <c r="J53" s="3">
-        <v>127</v>
-      </c>
-      <c r="K53" s="3">
-        <v>56</v>
-      </c>
+      <c r="G53" s="2"/>
+      <c r="H53" s="3"/>
+      <c r="I53" s="3"/>
+      <c r="J53" s="3"/>
+      <c r="K53" s="3"/>
     </row>
     <row r="54" spans="1:11" ht="15.75" thickBot="1">
       <c r="A54" s="2"/>
@@ -2621,21 +2844,11 @@
       <c r="C54" s="3"/>
       <c r="D54" s="3"/>
       <c r="E54" s="3"/>
-      <c r="G54" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="H54" s="3">
-        <v>9434</v>
-      </c>
-      <c r="I54" s="3">
-        <v>673</v>
-      </c>
-      <c r="J54" s="3">
-        <v>220</v>
-      </c>
-      <c r="K54" s="3">
-        <v>122</v>
-      </c>
+      <c r="G54" s="2"/>
+      <c r="H54" s="3"/>
+      <c r="I54" s="3"/>
+      <c r="J54" s="3"/>
+      <c r="K54" s="3"/>
     </row>
     <row r="55" spans="1:11" ht="15.75" thickBot="1">
       <c r="A55" s="2"/>
@@ -2643,21 +2856,11 @@
       <c r="C55" s="3"/>
       <c r="D55" s="3"/>
       <c r="E55" s="3"/>
-      <c r="G55" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="H55" s="3">
-        <v>8687</v>
-      </c>
-      <c r="I55" s="3">
-        <v>691</v>
-      </c>
-      <c r="J55" s="3">
-        <v>176</v>
-      </c>
-      <c r="K55" s="3">
-        <v>128</v>
-      </c>
+      <c r="G55" s="2"/>
+      <c r="H55" s="3"/>
+      <c r="I55" s="3"/>
+      <c r="J55" s="3"/>
+      <c r="K55" s="3"/>
     </row>
     <row r="56" spans="1:11" ht="15.75" thickBot="1">
       <c r="A56" s="2"/>
@@ -2665,21 +2868,11 @@
       <c r="C56" s="3"/>
       <c r="D56" s="3"/>
       <c r="E56" s="3"/>
-      <c r="G56" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="H56" s="3">
-        <v>8896</v>
-      </c>
-      <c r="I56" s="3">
-        <v>708</v>
-      </c>
-      <c r="J56" s="3">
-        <v>161</v>
-      </c>
-      <c r="K56" s="3">
-        <v>104</v>
-      </c>
+      <c r="G56" s="2"/>
+      <c r="H56" s="3"/>
+      <c r="I56" s="3"/>
+      <c r="J56" s="3"/>
+      <c r="K56" s="3"/>
     </row>
     <row r="57" spans="1:11" ht="15.75" thickBot="1">
       <c r="A57" s="2"/>
@@ -2687,21 +2880,11 @@
       <c r="C57" s="3"/>
       <c r="D57" s="3"/>
       <c r="E57" s="3"/>
-      <c r="G57" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="H57" s="3">
-        <v>9535</v>
-      </c>
-      <c r="I57" s="3">
-        <v>759</v>
-      </c>
-      <c r="J57" s="3">
-        <v>233</v>
-      </c>
-      <c r="K57" s="3">
-        <v>124</v>
-      </c>
+      <c r="G57" s="2"/>
+      <c r="H57" s="3"/>
+      <c r="I57" s="3"/>
+      <c r="J57" s="3"/>
+      <c r="K57" s="3"/>
     </row>
     <row r="58" spans="1:11" ht="15.75" thickBot="1">
       <c r="A58" s="2"/>
@@ -2709,21 +2892,11 @@
       <c r="C58" s="3"/>
       <c r="D58" s="3"/>
       <c r="E58" s="3"/>
-      <c r="G58" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="H58" s="3">
-        <v>9363</v>
-      </c>
-      <c r="I58" s="3">
-        <v>736</v>
-      </c>
-      <c r="J58" s="3">
-        <v>154</v>
-      </c>
-      <c r="K58" s="3">
-        <v>91</v>
-      </c>
+      <c r="G58" s="2"/>
+      <c r="H58" s="3"/>
+      <c r="I58" s="3"/>
+      <c r="J58" s="3"/>
+      <c r="K58" s="3"/>
     </row>
     <row r="59" spans="1:11" ht="15.75" thickBot="1">
       <c r="A59" s="2"/>
@@ -2731,21 +2904,11 @@
       <c r="C59" s="3"/>
       <c r="D59" s="3"/>
       <c r="E59" s="3"/>
-      <c r="G59" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="H59" s="3">
-        <v>9327</v>
-      </c>
-      <c r="I59" s="3">
-        <v>739</v>
-      </c>
-      <c r="J59" s="3">
-        <v>196</v>
-      </c>
-      <c r="K59" s="3">
-        <v>86</v>
-      </c>
+      <c r="G59" s="2"/>
+      <c r="H59" s="3"/>
+      <c r="I59" s="3"/>
+      <c r="J59" s="3"/>
+      <c r="K59" s="3"/>
     </row>
     <row r="60" spans="1:11" ht="15.75" thickBot="1">
       <c r="A60" s="2"/>
@@ -2753,21 +2916,11 @@
       <c r="C60" s="3"/>
       <c r="D60" s="3"/>
       <c r="E60" s="3"/>
-      <c r="G60" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="H60" s="3">
-        <v>9345</v>
-      </c>
-      <c r="I60" s="3">
-        <v>734</v>
-      </c>
-      <c r="J60" s="3">
-        <v>167</v>
-      </c>
-      <c r="K60" s="3">
-        <v>75</v>
-      </c>
+      <c r="G60" s="2"/>
+      <c r="H60" s="3"/>
+      <c r="I60" s="3"/>
+      <c r="J60" s="3"/>
+      <c r="K60" s="3"/>
     </row>
     <row r="61" spans="1:11" ht="15.75" thickBot="1">
       <c r="A61" s="2"/>
@@ -2775,21 +2928,11 @@
       <c r="C61" s="3"/>
       <c r="D61" s="3"/>
       <c r="E61" s="3"/>
-      <c r="G61" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="H61" s="3">
-        <v>8890</v>
-      </c>
-      <c r="I61" s="3">
-        <v>706</v>
-      </c>
-      <c r="J61" s="3">
-        <v>174</v>
-      </c>
-      <c r="K61" s="3">
-        <v>101</v>
-      </c>
+      <c r="G61" s="2"/>
+      <c r="H61" s="3"/>
+      <c r="I61" s="3"/>
+      <c r="J61" s="3"/>
+      <c r="K61" s="3"/>
     </row>
     <row r="62" spans="1:11" ht="15.75" thickBot="1">
       <c r="A62" s="2"/>
@@ -2797,21 +2940,11 @@
       <c r="C62" s="3"/>
       <c r="D62" s="3"/>
       <c r="E62" s="3"/>
-      <c r="G62" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="H62" s="3">
-        <v>8460</v>
-      </c>
-      <c r="I62" s="3">
-        <v>681</v>
-      </c>
-      <c r="J62" s="3">
-        <v>156</v>
-      </c>
-      <c r="K62" s="3">
-        <v>93</v>
-      </c>
+      <c r="G62" s="2"/>
+      <c r="H62" s="3"/>
+      <c r="I62" s="3"/>
+      <c r="J62" s="3"/>
+      <c r="K62" s="3"/>
     </row>
     <row r="63" spans="1:11" ht="15.75" thickBot="1">
       <c r="A63" s="2"/>
@@ -2819,21 +2952,11 @@
       <c r="C63" s="3"/>
       <c r="D63" s="3"/>
       <c r="E63" s="3"/>
-      <c r="G63" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="H63" s="3">
-        <v>8836</v>
-      </c>
-      <c r="I63" s="3">
-        <v>693</v>
-      </c>
-      <c r="J63" s="3">
-        <v>206</v>
-      </c>
-      <c r="K63" s="3">
-        <v>67</v>
-      </c>
+      <c r="G63" s="2"/>
+      <c r="H63" s="3"/>
+      <c r="I63" s="3"/>
+      <c r="J63" s="3"/>
+      <c r="K63" s="3"/>
     </row>
     <row r="64" spans="1:11" ht="15.75" thickBot="1">
       <c r="A64" s="2"/>
@@ -2841,15 +2964,9 @@
       <c r="C64" s="3"/>
       <c r="D64" s="2"/>
       <c r="E64" s="2"/>
-      <c r="G64" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="H64" s="3">
-        <v>9437</v>
-      </c>
-      <c r="I64" s="3">
-        <v>788</v>
-      </c>
+      <c r="G64" s="2"/>
+      <c r="H64" s="3"/>
+      <c r="I64" s="3"/>
       <c r="J64" s="2"/>
       <c r="K64" s="2"/>
     </row>
@@ -2859,15 +2976,9 @@
       <c r="C65" s="3"/>
       <c r="D65" s="2"/>
       <c r="E65" s="2"/>
-      <c r="G65" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="H65" s="3">
-        <v>9420</v>
-      </c>
-      <c r="I65" s="3">
-        <v>781</v>
-      </c>
+      <c r="G65" s="2"/>
+      <c r="H65" s="3"/>
+      <c r="I65" s="3"/>
       <c r="J65" s="2"/>
       <c r="K65" s="2"/>
     </row>
@@ -2877,15 +2988,9 @@
       <c r="C66" s="3"/>
       <c r="D66" s="2"/>
       <c r="E66" s="2"/>
-      <c r="G66" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="H66" s="3">
-        <v>9570</v>
-      </c>
-      <c r="I66" s="3">
-        <v>805</v>
-      </c>
+      <c r="G66" s="2"/>
+      <c r="H66" s="3"/>
+      <c r="I66" s="3"/>
       <c r="J66" s="2"/>
       <c r="K66" s="2"/>
     </row>
@@ -2895,15 +3000,9 @@
       <c r="C67" s="3"/>
       <c r="D67" s="2"/>
       <c r="E67" s="2"/>
-      <c r="G67" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="H67" s="3">
-        <v>9921</v>
-      </c>
-      <c r="I67" s="3">
-        <v>830</v>
-      </c>
+      <c r="G67" s="2"/>
+      <c r="H67" s="3"/>
+      <c r="I67" s="3"/>
       <c r="J67" s="2"/>
       <c r="K67" s="2"/>
     </row>
@@ -2913,15 +3012,9 @@
       <c r="C68" s="3"/>
       <c r="D68" s="2"/>
       <c r="E68" s="2"/>
-      <c r="G68" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="H68" s="3">
-        <v>9424</v>
-      </c>
-      <c r="I68" s="3">
-        <v>781</v>
-      </c>
+      <c r="G68" s="2"/>
+      <c r="H68" s="3"/>
+      <c r="I68" s="3"/>
       <c r="J68" s="2"/>
       <c r="K68" s="2"/>
     </row>
@@ -2931,15 +3024,9 @@
       <c r="C69" s="3"/>
       <c r="D69" s="2"/>
       <c r="E69" s="2"/>
-      <c r="G69" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="H69" s="3">
-        <v>9010</v>
-      </c>
-      <c r="I69" s="3">
-        <v>756</v>
-      </c>
+      <c r="G69" s="2"/>
+      <c r="H69" s="3"/>
+      <c r="I69" s="3"/>
       <c r="J69" s="2"/>
       <c r="K69" s="2"/>
     </row>
@@ -2949,15 +3036,9 @@
       <c r="C70" s="3"/>
       <c r="D70" s="2"/>
       <c r="E70" s="2"/>
-      <c r="G70" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="H70" s="3">
-        <v>9656</v>
-      </c>
-      <c r="I70" s="3">
-        <v>825</v>
-      </c>
+      <c r="G70" s="2"/>
+      <c r="H70" s="3"/>
+      <c r="I70" s="3"/>
       <c r="J70" s="2"/>
       <c r="K70" s="2"/>
     </row>
@@ -2967,15 +3048,9 @@
       <c r="C71" s="3"/>
       <c r="D71" s="2"/>
       <c r="E71" s="2"/>
-      <c r="G71" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="H71" s="3">
-        <v>10419</v>
-      </c>
-      <c r="I71" s="3">
-        <v>874</v>
-      </c>
+      <c r="G71" s="2"/>
+      <c r="H71" s="3"/>
+      <c r="I71" s="3"/>
       <c r="J71" s="2"/>
       <c r="K71" s="2"/>
     </row>
@@ -2985,15 +3060,9 @@
       <c r="C72" s="3"/>
       <c r="D72" s="2"/>
       <c r="E72" s="2"/>
-      <c r="G72" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="H72" s="3">
-        <v>9880</v>
-      </c>
-      <c r="I72" s="3">
-        <v>830</v>
-      </c>
+      <c r="G72" s="2"/>
+      <c r="H72" s="3"/>
+      <c r="I72" s="3"/>
       <c r="J72" s="2"/>
       <c r="K72" s="2"/>
     </row>
@@ -3003,15 +3072,9 @@
       <c r="C73" s="3"/>
       <c r="D73" s="2"/>
       <c r="E73" s="2"/>
-      <c r="G73" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="H73" s="3">
-        <v>10134</v>
-      </c>
-      <c r="I73" s="3">
-        <v>801</v>
-      </c>
+      <c r="G73" s="2"/>
+      <c r="H73" s="3"/>
+      <c r="I73" s="3"/>
       <c r="J73" s="2"/>
       <c r="K73" s="2"/>
     </row>
@@ -3021,15 +3084,9 @@
       <c r="C74" s="3"/>
       <c r="D74" s="2"/>
       <c r="E74" s="2"/>
-      <c r="G74" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="H74" s="3">
-        <v>9717</v>
-      </c>
-      <c r="I74" s="3">
-        <v>814</v>
-      </c>
+      <c r="G74" s="2"/>
+      <c r="H74" s="3"/>
+      <c r="I74" s="3"/>
       <c r="J74" s="2"/>
       <c r="K74" s="2"/>
     </row>
@@ -3039,15 +3096,9 @@
       <c r="C75" s="3"/>
       <c r="D75" s="2"/>
       <c r="E75" s="2"/>
-      <c r="G75" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="H75" s="3">
-        <v>9192</v>
-      </c>
-      <c r="I75" s="3">
-        <v>735</v>
-      </c>
+      <c r="G75" s="2"/>
+      <c r="H75" s="3"/>
+      <c r="I75" s="3"/>
       <c r="J75" s="2"/>
       <c r="K75" s="2"/>
     </row>
@@ -3057,15 +3108,9 @@
       <c r="C76" s="3"/>
       <c r="D76" s="2"/>
       <c r="E76" s="2"/>
-      <c r="G76" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="H76" s="3">
-        <v>8630</v>
-      </c>
-      <c r="I76" s="3">
-        <v>743</v>
-      </c>
+      <c r="G76" s="2"/>
+      <c r="H76" s="3"/>
+      <c r="I76" s="3"/>
       <c r="J76" s="2"/>
       <c r="K76" s="2"/>
     </row>
@@ -3075,15 +3120,9 @@
       <c r="C77" s="3"/>
       <c r="D77" s="2"/>
       <c r="E77" s="2"/>
-      <c r="G77" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="H77" s="3">
-        <v>8970</v>
-      </c>
-      <c r="I77" s="3">
-        <v>722</v>
-      </c>
+      <c r="G77" s="2"/>
+      <c r="H77" s="3"/>
+      <c r="I77" s="3"/>
       <c r="J77" s="2"/>
       <c r="K77" s="2"/>
     </row>
@@ -3147,18 +3186,24 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <ignoredErrors>
+    <ignoredError sqref="K2:K24" formula="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H38"/>
+  <dimension ref="A1:H39"/>
   <sheetViews>
-    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0"/>
+    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="D39" sqref="D39"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -3181,10 +3226,10 @@
         <v>58</v>
       </c>
       <c r="G1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="H1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -3864,6 +3909,14 @@
       <c r="C25">
         <v>789</v>
       </c>
+      <c r="D25">
+        <f>SUM(D2:D24)</f>
+        <v>3423</v>
+      </c>
+      <c r="E25">
+        <f>SUM(E2:E24)</f>
+        <v>1945</v>
+      </c>
     </row>
     <row r="26" spans="1:8">
       <c r="A26" t="s">
@@ -3875,6 +3928,10 @@
       <c r="C26">
         <v>743</v>
       </c>
+      <c r="D26">
+        <f>SUM(C2:C24)</f>
+        <v>17260</v>
+      </c>
     </row>
     <row r="27" spans="1:8">
       <c r="A27" t="s">
@@ -3942,7 +3999,7 @@
         <v>851</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:4">
       <c r="A33" t="s">
         <v>52</v>
       </c>
@@ -3953,7 +4010,7 @@
         <v>831</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:4">
       <c r="A34" t="s">
         <v>53</v>
       </c>
@@ -3964,7 +4021,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:4">
       <c r="A35" t="s">
         <v>54</v>
       </c>
@@ -3975,7 +4032,7 @@
         <v>829</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:4">
       <c r="A36" t="s">
         <v>55</v>
       </c>
@@ -3986,7 +4043,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:4">
       <c r="A37" t="s">
         <v>56</v>
       </c>
@@ -3997,7 +4054,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:4">
       <c r="A38" t="s">
         <v>57</v>
       </c>
@@ -4006,6 +4063,23 @@
       </c>
       <c r="C38">
         <v>710</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" t="s">
+        <v>77</v>
+      </c>
+      <c r="B39">
+        <f>SUM(B2:B38)</f>
+        <v>344660</v>
+      </c>
+      <c r="C39">
+        <f>SUM(C2:C38)</f>
+        <v>28325</v>
+      </c>
+      <c r="D39">
+        <f>C39/B39</f>
+        <v>8.2182440666163759E-2</v>
       </c>
     </row>
   </sheetData>

--- a/P7 ab_test/data.xlsx
+++ b/P7 ab_test/data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19440" windowHeight="7650" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19440" windowHeight="7650"/>
   </bookViews>
   <sheets>
     <sheet name="Baseline" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="98">
   <si>
     <t>Unique cookies to view page per day:</t>
   </si>
@@ -200,15 +200,6 @@
     <t>CTP</t>
   </si>
   <si>
-    <t>LCL</t>
-  </si>
-  <si>
-    <t>UCL</t>
-  </si>
-  <si>
-    <t>Expect</t>
-  </si>
-  <si>
     <t>CTR</t>
   </si>
   <si>
@@ -216,30 +207,6 @@
   </si>
   <si>
     <t>Net</t>
-  </si>
-  <si>
-    <t>Ssig</t>
-  </si>
-  <si>
-    <t>Psig</t>
-  </si>
-  <si>
-    <t>Pbound</t>
-  </si>
-  <si>
-    <t>Pc</t>
-  </si>
-  <si>
-    <t>Pe</t>
-  </si>
-  <si>
-    <t>pooledSE</t>
-  </si>
-  <si>
-    <t>pooledP</t>
-  </si>
-  <si>
-    <t>Pdiff</t>
   </si>
   <si>
     <t>GrossSign</t>
@@ -688,7 +655,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -698,7 +665,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
@@ -894,8 +861,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AB85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="R1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="Y23" sqref="Y23"/>
+    <sheetView topLeftCell="B11" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="S45" sqref="S45:S46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -937,28 +904,28 @@
         <v>20</v>
       </c>
       <c r="F1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G1" t="s">
+        <v>60</v>
+      </c>
+      <c r="H1" t="s">
+        <v>61</v>
+      </c>
+      <c r="I1" t="s">
+        <v>86</v>
+      </c>
+      <c r="J1" t="s">
         <v>62</v>
       </c>
-      <c r="G1" t="s">
+      <c r="K1" t="s">
+        <v>87</v>
+      </c>
+      <c r="L1" t="s">
         <v>63</v>
       </c>
-      <c r="H1" t="s">
-        <v>64</v>
-      </c>
-      <c r="I1" t="s">
-        <v>97</v>
-      </c>
-      <c r="J1" t="s">
-        <v>73</v>
-      </c>
-      <c r="K1" t="s">
-        <v>98</v>
-      </c>
-      <c r="L1" t="s">
-        <v>74</v>
-      </c>
       <c r="O1" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
     </row>
     <row r="2" spans="1:28">
@@ -994,7 +961,7 @@
         <v>4.1989721652853279E-2</v>
       </c>
       <c r="J2" t="b">
-        <f>I2&gt;0</f>
+        <f t="shared" ref="J2:J24" si="0">I2&gt;0</f>
         <v>1</v>
       </c>
       <c r="K2">
@@ -1002,29 +969,29 @@
         <v>5.2329603082655392E-2</v>
       </c>
       <c r="L2" t="b">
-        <f>K2&gt;0</f>
+        <f t="shared" ref="L2:L24" si="1">K2&gt;0</f>
         <v>1</v>
       </c>
       <c r="P2" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="Q2" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="R2" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="S2" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="T2" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="U2" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="V2" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
     </row>
     <row r="3" spans="1:28">
@@ -1044,15 +1011,15 @@
         <v>70</v>
       </c>
       <c r="F3">
-        <f t="shared" ref="F3:F38" si="0">C3/B3</f>
+        <f t="shared" ref="F3:F38" si="2">C3/B3</f>
         <v>8.5585585585585586E-2</v>
       </c>
       <c r="G3">
-        <f t="shared" ref="G3:G24" si="1">D3/C3</f>
+        <f t="shared" ref="G3:G24" si="3">D3/C3</f>
         <v>0.18870346598202825</v>
       </c>
       <c r="H3">
-        <f t="shared" ref="H3:H24" si="2">E3/C3</f>
+        <f t="shared" ref="H3:H24" si="4">E3/C3</f>
         <v>8.9858793324775352E-2</v>
       </c>
       <c r="I3">
@@ -1060,7 +1027,7 @@
         <v>4.0932765345085581E-2</v>
       </c>
       <c r="J3" t="b">
-        <f>I3&gt;0</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="K3">
@@ -1068,41 +1035,41 @@
         <v>-2.6064773554205542E-2</v>
       </c>
       <c r="L3" t="b">
-        <f>K3&gt;0</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="O3" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="P3" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="Q3" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="R3" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="S3" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="T3" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="U3" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="V3" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="W3" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="X3" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="Y3" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
     </row>
     <row r="4" spans="1:28">
@@ -1122,15 +1089,15 @@
         <v>95</v>
       </c>
       <c r="F4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>8.6480829607078299E-2</v>
       </c>
       <c r="G4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.18371837183718373</v>
       </c>
       <c r="H4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.10451045104510451</v>
       </c>
       <c r="I4">
@@ -1138,7 +1105,7 @@
         <v>1.9691222515916762E-2</v>
       </c>
       <c r="J4" t="b">
-        <f>I4&gt;0</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="K4">
@@ -1146,11 +1113,11 @@
         <v>1.5143935208000434E-2</v>
       </c>
       <c r="L4" t="b">
-        <f>K4&gt;0</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="O4" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="P4">
         <f>B39</f>
@@ -1161,7 +1128,7 @@
         <v>344660</v>
       </c>
       <c r="R4" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="S4">
         <v>0.5</v>
@@ -1208,15 +1175,15 @@
         <v>105</v>
       </c>
       <c r="F5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>8.4692533684530447E-2</v>
       </c>
       <c r="G5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.18660287081339713</v>
       </c>
       <c r="H5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.1255980861244019</v>
       </c>
       <c r="I5">
@@ -1224,7 +1191,7 @@
         <v>1.9734672506262901E-2</v>
       </c>
       <c r="J5" t="b">
-        <f>I5&gt;0</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="K5">
@@ -1232,11 +1199,11 @@
         <v>1.4352620586312426E-2</v>
       </c>
       <c r="L5" t="b">
-        <f>K5&gt;0</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="O5" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="P5">
         <f>C39</f>
@@ -1247,7 +1214,7 @@
         <v>28325</v>
       </c>
       <c r="R5" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="S5">
         <v>0.5</v>
@@ -1294,15 +1261,15 @@
         <v>64</v>
       </c>
       <c r="F6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>8.3582983822648296E-2</v>
       </c>
       <c r="G6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.19474313022700118</v>
       </c>
       <c r="H6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>7.6463560334528072E-2</v>
       </c>
       <c r="I6">
@@ -1310,7 +1277,7 @@
         <v>2.64738994577704E-2</v>
       </c>
       <c r="J6" t="b">
-        <f>I6&gt;0</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="K6">
@@ -1318,7 +1285,7 @@
         <v>-3.651720889624116E-2</v>
       </c>
       <c r="L6" t="b">
-        <f>K6&gt;0</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="O6" t="s">
@@ -1382,15 +1349,15 @@
         <v>82</v>
       </c>
       <c r="F7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>8.5108583247156158E-2</v>
       </c>
       <c r="G7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.16767922235722965</v>
       </c>
       <c r="H7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>9.9635479951397321E-2</v>
       </c>
       <c r="I7">
@@ -1398,7 +1365,7 @@
         <v>3.9736386008844826E-3</v>
       </c>
       <c r="J7" t="b">
-        <f>I7&gt;0</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="K7">
@@ -1406,7 +1373,7 @@
         <v>2.222431243870697E-2</v>
       </c>
       <c r="L7" t="b">
-        <f>K7&gt;0</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -1427,15 +1394,15 @@
         <v>76</v>
       </c>
       <c r="F8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>8.3037300177619899E-2</v>
       </c>
       <c r="G8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.19518716577540107</v>
       </c>
       <c r="H8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.10160427807486631</v>
       </c>
       <c r="I8">
@@ -1443,7 +1410,7 @@
         <v>3.2366652954888248E-2</v>
       </c>
       <c r="J8" t="b">
-        <f>I8&gt;0</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="K8">
@@ -1451,7 +1418,7 @@
         <v>4.5194021664609903E-2</v>
       </c>
       <c r="L8" t="b">
-        <f>K8&gt;0</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="S8">
@@ -1476,15 +1443,15 @@
         <v>70</v>
       </c>
       <c r="F9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>8.5014796879203658E-2</v>
       </c>
       <c r="G9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.17405063291139242</v>
       </c>
       <c r="H9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.11075949367088607</v>
       </c>
       <c r="I9">
@@ -1492,7 +1459,7 @@
         <v>2.9878853770288122E-2</v>
       </c>
       <c r="J9" t="b">
-        <f>I9&gt;0</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="K9">
@@ -1500,7 +1467,7 @@
         <v>1.5667469131008763E-2</v>
       </c>
       <c r="L9" t="b">
-        <f>K9&gt;0</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -1521,15 +1488,15 @@
         <v>60</v>
       </c>
       <c r="F10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>8.1688142806478306E-2</v>
       </c>
       <c r="G10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.18958031837916064</v>
       </c>
       <c r="H10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>8.6830680173661356E-2</v>
       </c>
       <c r="I10">
@@ -1537,7 +1504,7 @@
         <v>1.7413890832532225E-2</v>
       </c>
       <c r="J10" t="b">
-        <f>I10&gt;0</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="K10">
@@ -1545,44 +1512,38 @@
         <v>-2.3642777502091872E-2</v>
       </c>
       <c r="L10" t="b">
-        <f>K10&gt;0</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="P10" t="s">
-        <v>63</v>
-      </c>
-      <c r="Q10" t="s">
-        <v>64</v>
-      </c>
       <c r="S10" t="s">
+        <v>83</v>
+      </c>
+      <c r="T10" t="s">
+        <v>89</v>
+      </c>
+      <c r="U10" t="s">
+        <v>90</v>
+      </c>
+      <c r="V10" t="s">
+        <v>91</v>
+      </c>
+      <c r="W10" t="s">
+        <v>92</v>
+      </c>
+      <c r="X10" t="s">
+        <v>93</v>
+      </c>
+      <c r="Y10" t="s">
         <v>94</v>
       </c>
-      <c r="T10" t="s">
-        <v>100</v>
-      </c>
-      <c r="U10" t="s">
-        <v>101</v>
-      </c>
-      <c r="V10" t="s">
-        <v>102</v>
-      </c>
-      <c r="W10" t="s">
-        <v>103</v>
-      </c>
-      <c r="X10" t="s">
-        <v>104</v>
-      </c>
-      <c r="Y10" t="s">
-        <v>105</v>
-      </c>
       <c r="Z10" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="AA10" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="AB10" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
     </row>
     <row r="11" spans="1:28">
@@ -1602,15 +1563,15 @@
         <v>97</v>
       </c>
       <c r="F11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>8.0716227617886938E-2</v>
       </c>
       <c r="G11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.19163763066202091</v>
       </c>
       <c r="H11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.11265969802555169</v>
       </c>
       <c r="I11">
@@ -1618,7 +1579,7 @@
         <v>1.3730653917834873E-2</v>
       </c>
       <c r="J11" t="b">
-        <f>I11&gt;0</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="K11">
@@ -1626,16 +1587,7 @@
         <v>-1.2937903465413403E-3</v>
       </c>
       <c r="L11" t="b">
-        <f>K11&gt;0</f>
-        <v>0</v>
-      </c>
-      <c r="O11" t="s">
-        <v>61</v>
-      </c>
-      <c r="P11">
-        <v>0</v>
-      </c>
-      <c r="Q11">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="S11" t="s">
@@ -1694,15 +1646,15 @@
         <v>105</v>
       </c>
       <c r="F12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>8.1332082551594742E-2</v>
       </c>
       <c r="G12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.22606689734717417</v>
       </c>
       <c r="H12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.12110726643598616</v>
       </c>
       <c r="I12">
@@ -1710,7 +1662,7 @@
         <v>6.0557638087914895E-2</v>
       </c>
       <c r="J12" t="b">
-        <f>I12&gt;0</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="K12">
@@ -1718,22 +1670,13 @@
         <v>3.8931340510060225E-2</v>
       </c>
       <c r="L12" t="b">
-        <f>K12&gt;0</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="O12" t="s">
-        <v>68</v>
-      </c>
-      <c r="P12" s="1">
-        <f>SUM(D$2:D$24)/SUM($C$2:$C$24)</f>
-        <v>0.2188746891805933</v>
-      </c>
-      <c r="Q12" s="1">
-        <f>SUM(E$2:E$24)/SUM($C$2:$C$24)</f>
-        <v>0.11756201931417337</v>
-      </c>
+      <c r="P12" s="1"/>
+      <c r="Q12" s="1"/>
       <c r="S12" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="T12">
         <v>0</v>
@@ -1787,15 +1730,15 @@
         <v>92</v>
       </c>
       <c r="F13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>8.4246506484367142E-2</v>
       </c>
       <c r="G13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.19331742243436753</v>
       </c>
       <c r="H13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.10978520286396182</v>
       </c>
       <c r="I13">
@@ -1803,7 +1746,7 @@
         <v>3.3517172746477392E-2</v>
       </c>
       <c r="J13" t="b">
-        <f>I13&gt;0</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="K13">
@@ -1811,20 +1754,11 @@
         <v>2.2394441315896893E-2</v>
       </c>
       <c r="L13" t="b">
-        <f>K13&gt;0</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="O13" t="s">
-        <v>69</v>
-      </c>
-      <c r="P13" s="1">
-        <f>SUM(Experiment!D$2:D$24)/SUM(Experiment!$C$2:$C$24)</f>
-        <v>0.19831981460023174</v>
-      </c>
-      <c r="Q13" s="1">
-        <f>SUM(Experiment!E$2:E$24)/SUM(Experiment!$C$2:$C$24)</f>
-        <v>0.1126882966396292</v>
-      </c>
+      <c r="P13" s="1"/>
+      <c r="Q13" s="1"/>
     </row>
     <row r="14" spans="1:28">
       <c r="A14" t="s">
@@ -1843,15 +1777,15 @@
         <v>56</v>
       </c>
       <c r="F14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>7.9889476213358956E-2</v>
       </c>
       <c r="G14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.19097744360902255</v>
       </c>
       <c r="H14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>8.4210526315789472E-2</v>
       </c>
       <c r="I14">
@@ -1859,7 +1793,7 @@
         <v>9.4629096104748012E-4</v>
       </c>
       <c r="J14" t="b">
-        <f>I14&gt;0</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="K14">
@@ -1867,20 +1801,11 @@
         <v>-2.1708476799475324E-2</v>
       </c>
       <c r="L14" t="b">
-        <f>K14&gt;0</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O14" t="s">
-        <v>72</v>
-      </c>
-      <c r="P14" s="1">
-        <f>P13-P12</f>
-        <v>-2.0554874580361565E-2</v>
-      </c>
-      <c r="Q14" s="1">
-        <f>Q13-Q12</f>
-        <v>-4.8737226745441675E-3</v>
-      </c>
+      <c r="P14" s="1"/>
+      <c r="Q14" s="1"/>
     </row>
     <row r="15" spans="1:28">
       <c r="A15" t="s">
@@ -1899,15 +1824,15 @@
         <v>122</v>
       </c>
       <c r="F15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>7.1337714649141404E-2</v>
       </c>
       <c r="G15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.32689450222882616</v>
       </c>
       <c r="H15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.1812778603268945</v>
       </c>
       <c r="I15">
@@ -1915,7 +1840,7 @@
         <v>4.8558777695110245E-2</v>
       </c>
       <c r="J15" t="b">
-        <f>I15&gt;0</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="K15">
@@ -1923,20 +1848,11 @@
         <v>4.641415874870225E-2</v>
       </c>
       <c r="L15" t="b">
-        <f>K15&gt;0</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="O15" t="s">
-        <v>71</v>
-      </c>
-      <c r="P15" s="1">
-        <f>SUM(D$2:D$24,Experiment!D$2:D$24)/SUM($C$2:$C$24,Experiment!$C$2:$C$24)</f>
-        <v>0.20860706740369866</v>
-      </c>
-      <c r="Q15" s="1">
-        <f>SUM(E$2:E$24,Experiment!E$2:E$24)/SUM($C$2:$C$24,Experiment!$C$2:$C$24)</f>
-        <v>0.11512748531241861</v>
-      </c>
+      <c r="P15" s="1"/>
+      <c r="Q15" s="1"/>
     </row>
     <row r="16" spans="1:28">
       <c r="A16" t="s">
@@ -1955,15 +1871,15 @@
         <v>128</v>
       </c>
       <c r="F16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>7.954414642569356E-2</v>
       </c>
       <c r="G16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.25470332850940663</v>
       </c>
       <c r="H16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.18523878437047755</v>
       </c>
       <c r="I16">
@@ -1971,7 +1887,7 @@
         <v>6.4867753023606922E-2</v>
       </c>
       <c r="J16" t="b">
-        <f>I16&gt;0</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="K16">
@@ -1979,20 +1895,11 @@
         <v>6.416255118662105E-2</v>
       </c>
       <c r="L16" t="b">
-        <f>K16&gt;0</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="O16" t="s">
-        <v>70</v>
-      </c>
-      <c r="P16" s="1">
-        <f>SQRT(P15*(1-P15)*(1/SUM($C$2:$C$24)+1/SUM(Experiment!$C$2:$C$24)))</f>
-        <v>4.3716753852259364E-3</v>
-      </c>
-      <c r="Q16" s="1">
-        <f>SQRT(Q15*(1-Q15)*(1/SUM($C$2:$C$24)+1/SUM(Experiment!$C$2:$C$24)))</f>
-        <v>3.4341335129324238E-3</v>
-      </c>
+      <c r="P16" s="1"/>
+      <c r="Q16" s="1"/>
     </row>
     <row r="17" spans="1:17">
       <c r="A17" t="s">
@@ -2011,15 +1918,15 @@
         <v>104</v>
       </c>
       <c r="F17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>7.9586330935251803E-2</v>
       </c>
       <c r="G17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.22740112994350281</v>
       </c>
       <c r="H17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.14689265536723164</v>
       </c>
       <c r="I17">
@@ -2027,7 +1934,7 @@
         <v>6.6219091642820416E-3</v>
       </c>
       <c r="J17" t="b">
-        <f>I17&gt;0</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="K17">
@@ -2035,20 +1942,11 @@
         <v>1.1495096240859148E-3</v>
       </c>
       <c r="L17" t="b">
-        <f>K17&gt;0</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="O17" t="s">
-        <v>59</v>
-      </c>
-      <c r="P17" s="1">
-        <f>P14-P16*1.96</f>
-        <v>-2.9123358335404401E-2</v>
-      </c>
-      <c r="Q17" s="1">
-        <f>Q14-Q16*1.96</f>
-        <v>-1.1604624359891718E-2</v>
-      </c>
+      <c r="P17" s="1"/>
+      <c r="Q17" s="1"/>
     </row>
     <row r="18" spans="1:17">
       <c r="A18" t="s">
@@ -2067,15 +1965,15 @@
         <v>124</v>
       </c>
       <c r="F18">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>7.960146827477714E-2</v>
       </c>
       <c r="G18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.30698287220026349</v>
       </c>
       <c r="H18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.16337285902503293</v>
       </c>
       <c r="I18">
@@ -2083,7 +1981,7 @@
         <v>3.0718280760574757E-2</v>
       </c>
       <c r="J18" t="b">
-        <f>I18&gt;0</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="K18">
@@ -2091,20 +1989,11 @@
         <v>9.0278525399486165E-3</v>
       </c>
       <c r="L18" t="b">
-        <f>K18&gt;0</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="O18" t="s">
-        <v>60</v>
-      </c>
-      <c r="P18" s="1">
-        <f>P14+P16*1.96</f>
-        <v>-1.198639082531873E-2</v>
-      </c>
-      <c r="Q18" s="1">
-        <f>Q14+Q16*1.96</f>
-        <v>1.857179010803383E-3</v>
-      </c>
+      <c r="P18" s="1"/>
+      <c r="Q18" s="1"/>
     </row>
     <row r="19" spans="1:17">
       <c r="A19" t="s">
@@ -2123,15 +2012,15 @@
         <v>91</v>
       </c>
       <c r="F19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>7.8607283990174096E-2</v>
       </c>
       <c r="G19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.20923913043478262</v>
       </c>
       <c r="H19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.12364130434782608</v>
       </c>
       <c r="I19">
@@ -2139,7 +2028,7 @@
         <v>-1.0869565217391297E-2</v>
       </c>
       <c r="J19" t="b">
-        <f>I19&gt;0</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K19">
@@ -2147,17 +2036,8 @@
         <v>-3.9402173913043487E-2</v>
       </c>
       <c r="L19" t="b">
-        <f>K19&gt;0</f>
+        <f t="shared" si="1"/>
         <v>0</v>
-      </c>
-      <c r="O19" t="s">
-        <v>67</v>
-      </c>
-      <c r="P19">
-        <v>0.01</v>
-      </c>
-      <c r="Q19">
-        <v>7.4999999999999997E-3</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -2177,15 +2057,15 @@
         <v>86</v>
       </c>
       <c r="F20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>7.9232336228154815E-2</v>
       </c>
       <c r="G20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.26522327469553453</v>
       </c>
       <c r="H20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.11637347767253045</v>
       </c>
       <c r="I20">
@@ -2193,7 +2073,7 @@
         <v>-1.1255404809279779E-2</v>
       </c>
       <c r="J20" t="b">
-        <f>I20&gt;0</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K20">
@@ -2201,19 +2081,8 @@
         <v>-1.5676040896933086E-2</v>
       </c>
       <c r="L20" t="b">
-        <f>K20&gt;0</f>
+        <f t="shared" si="1"/>
         <v>0</v>
-      </c>
-      <c r="O20" t="s">
-        <v>66</v>
-      </c>
-      <c r="P20" t="b">
-        <f>OR(ABS(P18)&lt;P19,ABS(P17)&gt;P19)</f>
-        <v>1</v>
-      </c>
-      <c r="Q20" t="b">
-        <f>OR(ABS(Q18)&lt;Q19,ABS(Q17)&gt;Q19)</f>
-        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -2233,15 +2102,15 @@
         <v>75</v>
       </c>
       <c r="F21">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>7.854467629748528E-2</v>
       </c>
       <c r="G21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.22752043596730245</v>
       </c>
       <c r="H21">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.10217983651226158</v>
       </c>
       <c r="I21">
@@ -2249,7 +2118,7 @@
         <v>-5.6820223373356876E-2</v>
       </c>
       <c r="J21" t="b">
-        <f>I21&gt;0</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K21">
@@ -2257,19 +2126,8 @@
         <v>1.0146869479294537E-2</v>
       </c>
       <c r="L21" t="b">
-        <f>K21&gt;0</f>
+        <f t="shared" si="1"/>
         <v>1</v>
-      </c>
-      <c r="O21" t="s">
-        <v>65</v>
-      </c>
-      <c r="P21" t="b">
-        <f>OR(P17&gt;0,P18&lt;0)</f>
-        <v>1</v>
-      </c>
-      <c r="Q21" t="b">
-        <f>OR(Q17&gt;0,Q18&lt;0)</f>
-        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -2289,15 +2147,15 @@
         <v>101</v>
       </c>
       <c r="F22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>7.9415073115860518E-2</v>
       </c>
       <c r="G22">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.24645892351274787</v>
       </c>
       <c r="H22">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.14305949008498584</v>
       </c>
       <c r="I22">
@@ -2305,7 +2163,7 @@
         <v>-5.6186388141219179E-3</v>
       </c>
       <c r="J22" t="b">
-        <f>I22&gt;0</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K22">
@@ -2313,7 +2171,7 @@
         <v>-2.7300620718338275E-2</v>
       </c>
       <c r="L22" t="b">
-        <f>K22&gt;0</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -2334,15 +2192,15 @@
         <v>93</v>
       </c>
       <c r="F23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>8.0496453900709225E-2</v>
       </c>
       <c r="G23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.22907488986784141</v>
       </c>
       <c r="H23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.13656387665198239</v>
       </c>
       <c r="I23">
@@ -2350,7 +2208,7 @@
         <v>2.475834310525149E-2</v>
       </c>
       <c r="J23" t="b">
-        <f>I23&gt;0</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="K23">
@@ -2358,7 +2216,7 @@
         <v>-7.3210154343485434E-3</v>
       </c>
       <c r="L23" t="b">
-        <f>K23&gt;0</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -2379,15 +2237,15 @@
         <v>67</v>
       </c>
       <c r="F24">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>7.8429153463105472E-2</v>
       </c>
       <c r="G24">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.29725829725829728</v>
       </c>
       <c r="H24">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>9.6681096681096687E-2</v>
       </c>
       <c r="I24">
@@ -2395,7 +2253,7 @@
         <v>4.5877081788683993E-2</v>
       </c>
       <c r="J24" t="b">
-        <f>I24&gt;0</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="K24">
@@ -2403,7 +2261,7 @@
         <v>-4.5584096689069056E-2</v>
       </c>
       <c r="L24" t="b">
-        <f>K24&gt;0</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -2426,7 +2284,7 @@
         <v>2033</v>
       </c>
       <c r="F25">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>8.3501112641729366E-2</v>
       </c>
     </row>
@@ -2445,7 +2303,7 @@
         <v>17293</v>
       </c>
       <c r="F26">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>8.2908704883227172E-2</v>
       </c>
     </row>
@@ -2460,7 +2318,7 @@
         <v>805</v>
       </c>
       <c r="F27">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>8.4117032392894461E-2</v>
       </c>
     </row>
@@ -2475,7 +2333,7 @@
         <v>830</v>
       </c>
       <c r="F28">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>8.3660921278096961E-2</v>
       </c>
     </row>
@@ -2490,7 +2348,7 @@
         <v>781</v>
       </c>
       <c r="F29">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>8.2873514431239387E-2</v>
       </c>
     </row>
@@ -2505,7 +2363,7 @@
         <v>756</v>
       </c>
       <c r="F30">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>8.390677025527192E-2</v>
       </c>
     </row>
@@ -2520,7 +2378,7 @@
         <v>825</v>
       </c>
       <c r="F31">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>8.5439105219552614E-2</v>
       </c>
     </row>
@@ -2535,7 +2393,7 @@
         <v>874</v>
       </c>
       <c r="F32">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>8.3885209713024281E-2</v>
       </c>
     </row>
@@ -2550,7 +2408,7 @@
         <v>830</v>
       </c>
       <c r="F33">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>8.4008097165991905E-2</v>
       </c>
     </row>
@@ -2565,7 +2423,7 @@
         <v>801</v>
       </c>
       <c r="F34">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>7.9040852575488457E-2</v>
       </c>
     </row>
@@ -2580,7 +2438,7 @@
         <v>814</v>
       </c>
       <c r="F35">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>8.3770711124832767E-2</v>
       </c>
     </row>
@@ -2595,7 +2453,7 @@
         <v>735</v>
       </c>
       <c r="F36">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>7.9960835509138378E-2</v>
       </c>
     </row>
@@ -2610,7 +2468,7 @@
         <v>743</v>
       </c>
       <c r="F37">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>8.6095017381228267E-2</v>
       </c>
     </row>
@@ -2625,13 +2483,13 @@
         <v>722</v>
       </c>
       <c r="F38">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>8.0490523968784838E-2</v>
       </c>
     </row>
     <row r="39" spans="1:19" ht="15.75" thickBot="1">
       <c r="A39" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="B39">
         <f>SUM(B2:B38)</f>
@@ -2648,7 +2506,7 @@
     </row>
     <row r="40" spans="1:19" ht="15.75" thickBot="1">
       <c r="A40" s="2" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
@@ -2672,10 +2530,10 @@
       <c r="J41" s="3"/>
       <c r="K41" s="3"/>
       <c r="R41" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="S41" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
     </row>
     <row r="42" spans="1:19" ht="15.75" thickBot="1">
@@ -3196,7 +3054,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H39"/>
   <sheetViews>
-    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+    <sheetView topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
@@ -3226,10 +3084,10 @@
         <v>58</v>
       </c>
       <c r="G1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="H1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -4067,7 +3925,7 @@
     </row>
     <row r="39" spans="1:4">
       <c r="A39" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="B39">
         <f>SUM(B2:B38)</f>
